--- a/artfynd/A 5979-2023.xlsx
+++ b/artfynd/A 5979-2023.xlsx
@@ -1380,10 +1380,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111401607</v>
+        <v>111401477</v>
       </c>
       <c r="B7" t="n">
-        <v>90685</v>
+        <v>90651</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1392,30 +1392,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1440</v>
+        <v>1968</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brödtaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum versipelle</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1427,14 +1427,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Öst Låssbytjärnet, Vrm</t>
+          <t>Öster Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>318453.8345372439</v>
+        <v>318589.7492944719</v>
       </c>
       <c r="R7" t="n">
-        <v>6596685.151500781</v>
+        <v>6596680.635420629</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111401477</v>
+        <v>111401607</v>
       </c>
       <c r="B9" t="n">
-        <v>90651</v>
+        <v>90685</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1640,30 +1640,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1968</v>
+        <v>1440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Brödtaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum versipelle</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1675,14 +1675,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Öster Låssbytjärnet, Vrm</t>
+          <t>Öst Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>318589.7492944719</v>
+        <v>318453.8345372439</v>
       </c>
       <c r="R9" t="n">
-        <v>6596680.635420629</v>
+        <v>6596685.151500781</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 5979-2023.xlsx
+++ b/artfynd/A 5979-2023.xlsx
@@ -1380,10 +1380,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111401477</v>
+        <v>111401581</v>
       </c>
       <c r="B7" t="n">
-        <v>90651</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1396,26 +1396,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1968</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1427,14 +1427,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Öster Låssbytjärnet, Vrm</t>
+          <t>Öst Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>318589.7492944719</v>
+        <v>318450.5531044828</v>
       </c>
       <c r="R7" t="n">
-        <v>6596680.635420629</v>
+        <v>6596617.106492633</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111401581</v>
+        <v>111401607</v>
       </c>
       <c r="B8" t="n">
-        <v>90710</v>
+        <v>90685</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1516,30 +1516,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>1440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Brödtaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum versipelle</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>318450.5531044828</v>
+        <v>318453.8345372439</v>
       </c>
       <c r="R8" t="n">
-        <v>6596617.106492633</v>
+        <v>6596685.151500781</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111401607</v>
+        <v>111401477</v>
       </c>
       <c r="B9" t="n">
-        <v>90685</v>
+        <v>90651</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1640,30 +1640,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1440</v>
+        <v>1968</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brödtaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum versipelle</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1675,14 +1675,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Öst Låssbytjärnet, Vrm</t>
+          <t>Öster Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>318453.8345372439</v>
+        <v>318589.7492944719</v>
       </c>
       <c r="R9" t="n">
-        <v>6596685.151500781</v>
+        <v>6596680.635420629</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 5979-2023.xlsx
+++ b/artfynd/A 5979-2023.xlsx
@@ -1380,10 +1380,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111401581</v>
+        <v>111401607</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>90685</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1392,30 +1392,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>1440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Brödtaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum versipelle</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>318450.5531044828</v>
+        <v>318453.8345372439</v>
       </c>
       <c r="R7" t="n">
-        <v>6596617.106492633</v>
+        <v>6596685.151500781</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111401607</v>
+        <v>111401477</v>
       </c>
       <c r="B8" t="n">
-        <v>90685</v>
+        <v>90651</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1516,30 +1516,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1440</v>
+        <v>1968</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brödtaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum versipelle</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1551,14 +1551,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Öst Låssbytjärnet, Vrm</t>
+          <t>Öster Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>318453.8345372439</v>
+        <v>318589.7492944719</v>
       </c>
       <c r="R8" t="n">
-        <v>6596685.151500781</v>
+        <v>6596680.635420629</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111401477</v>
+        <v>111401581</v>
       </c>
       <c r="B9" t="n">
-        <v>90651</v>
+        <v>90710</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1644,26 +1644,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1968</v>
+        <v>5449</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1675,14 +1675,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Öster Låssbytjärnet, Vrm</t>
+          <t>Öst Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>318589.7492944719</v>
+        <v>318450.5531044828</v>
       </c>
       <c r="R9" t="n">
-        <v>6596680.635420629</v>
+        <v>6596617.106492633</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 5979-2023.xlsx
+++ b/artfynd/A 5979-2023.xlsx
@@ -1504,10 +1504,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111401477</v>
+        <v>111401581</v>
       </c>
       <c r="B8" t="n">
-        <v>90651</v>
+        <v>90710</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1520,26 +1520,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1968</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1551,14 +1551,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Öster Låssbytjärnet, Vrm</t>
+          <t>Öst Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>318589.7492944719</v>
+        <v>318450.5531044828</v>
       </c>
       <c r="R8" t="n">
-        <v>6596680.635420629</v>
+        <v>6596617.106492633</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111401581</v>
+        <v>111401477</v>
       </c>
       <c r="B9" t="n">
-        <v>90710</v>
+        <v>90651</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1644,26 +1644,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5449</v>
+        <v>1968</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1675,14 +1675,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Öst Låssbytjärnet, Vrm</t>
+          <t>Öster Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>318450.5531044828</v>
+        <v>318589.7492944719</v>
       </c>
       <c r="R9" t="n">
-        <v>6596617.106492633</v>
+        <v>6596680.635420629</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 5979-2023.xlsx
+++ b/artfynd/A 5979-2023.xlsx
@@ -1504,10 +1504,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111401581</v>
+        <v>111401477</v>
       </c>
       <c r="B8" t="n">
-        <v>90710</v>
+        <v>90651</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1520,26 +1520,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>1968</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1551,14 +1551,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Öst Låssbytjärnet, Vrm</t>
+          <t>Öster Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>318450.5531044828</v>
+        <v>318589.7492944719</v>
       </c>
       <c r="R8" t="n">
-        <v>6596617.106492633</v>
+        <v>6596680.635420629</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111401477</v>
+        <v>111401581</v>
       </c>
       <c r="B9" t="n">
-        <v>90651</v>
+        <v>90710</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1644,26 +1644,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1968</v>
+        <v>5449</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1675,14 +1675,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Öster Låssbytjärnet, Vrm</t>
+          <t>Öst Låssbytjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>318589.7492944719</v>
+        <v>318450.5531044828</v>
       </c>
       <c r="R9" t="n">
-        <v>6596680.635420629</v>
+        <v>6596617.106492633</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
